--- a/Sales Data 2023/02Feb2023.xlsx
+++ b/Sales Data 2023/02Feb2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E03802-B3B3-433E-8D83-F43EFF1DB747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A8E7C-779F-4D42-80E0-6493E89E19AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sales Data 2023/02Feb2023.xlsx
+++ b/Sales Data 2023/02Feb2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843A8E7C-779F-4D42-80E0-6493E89E19AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C267EC-5FE4-4BBC-A28F-5768742C968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="SalesData" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$J$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SalesData!$A$1:$K$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="110">
   <si>
     <t>DATE</t>
   </si>
@@ -267,9 +267,6 @@
     <t>SBT-DELL-WDX0R</t>
   </si>
   <si>
-    <t>HDD25-1TB</t>
-  </si>
-  <si>
     <t>KAP ADI DEKI</t>
   </si>
   <si>
@@ -352,6 +349,15 @@
   </si>
   <si>
     <t>DDR4-8GB-SODIMM-3200</t>
+  </si>
+  <si>
+    <t>PROFIT</t>
+  </si>
+  <si>
+    <t>HDD25-1TB-SG1T</t>
+  </si>
+  <si>
+    <t>EXTERNALSTORAGE</t>
   </si>
 </sst>
 </file>
@@ -674,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:K135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,9 +699,9 @@
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -724,8 +730,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -751,8 +760,12 @@
         <f t="shared" ref="H2:H33" si="0">D2*G2</f>
         <v>400000</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -778,8 +791,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f>IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -805,8 +822,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" ref="K4:K66" si="1">IF(E4="INTERNALSTORAGE",H4*52%,IF(E4="SERVICE",H4*100%,IF(E4="DISPLAY",H4*50%,IF(E4="RAM",H4*65%,IF(E4="SOFTWARE",H4*100%,IF(E4="BATTERY",H4*70%,IF(E4="KEYBOARD",H4*60%,IF(E4="ADAPTOR",H4*45%,IF(E4="MAINBOARD",H4*15%,IF(E4="ACCESSORIES",H4*25%,IF(E4="VGA",H4*15%,IF(E4="POWERSUPPLY",H4*40%,IF(E4="PROCESSOR",H4*20%,IF(E4="SECOND",H4*150%,IF(E4="CASING",H4*15%,IF(E4="MONITOR",H4*5%,IF(E4="EXTERNALSTORAGE",100000,H4)))))))))))))))))</f>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -832,8 +853,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -859,8 +884,12 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>312000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -886,8 +915,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -913,8 +946,12 @@
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -940,8 +977,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -967,8 +1008,12 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -994,8 +1039,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1021,8 +1070,12 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1048,8 +1101,12 @@
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1075,8 +1132,12 @@
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1102,8 +1163,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1129,8 +1194,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1156,8 +1225,12 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1183,8 +1256,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1210,8 +1287,12 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1237,8 +1318,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1264,8 +1349,12 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1291,8 +1380,12 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1318,8 +1411,12 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1345,8 +1442,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1372,8 +1473,12 @@
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1399,8 +1504,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1429,8 +1538,12 @@
       <c r="I27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1456,8 +1569,12 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1483,8 +1600,12 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1510,8 +1631,12 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1537,8 +1662,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1564,8 +1693,12 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1591,8 +1724,12 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1615,11 +1752,15 @@
         <v>350000</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" ref="H34:H65" si="1">D34*G34</f>
+        <f t="shared" ref="H34:H65" si="2">D34*G34</f>
         <v>350000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1642,11 +1783,15 @@
         <v>100000</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1669,11 +1814,15 @@
         <v>100000</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1696,11 +1845,15 @@
         <v>50000</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1723,14 +1876,18 @@
         <v>100000</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I38" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1753,14 +1910,18 @@
         <v>100000</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100000</v>
       </c>
       <c r="I39" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1783,11 +1944,15 @@
         <v>360000</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>187200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1810,11 +1975,15 @@
         <v>1200000</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1837,11 +2006,15 @@
         <v>500000</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1864,11 +2037,15 @@
         <v>100000</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1891,11 +2068,15 @@
         <v>400000</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>208000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1918,11 +2099,15 @@
         <v>100000</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1945,11 +2130,15 @@
         <v>200000</v>
       </c>
       <c r="H46" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1972,11 +2161,15 @@
         <v>50000</v>
       </c>
       <c r="H47" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1999,11 +2192,15 @@
         <v>50000</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2026,7 +2223,7 @@
         <v>450000</v>
       </c>
       <c r="H49" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>450000</v>
       </c>
       <c r="I49" t="s">
@@ -2035,8 +2232,12 @@
       <c r="J49" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>234000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2059,7 +2260,7 @@
         <v>400000</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
       <c r="I50" t="s">
@@ -2068,8 +2269,12 @@
       <c r="J50" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2092,11 +2297,15 @@
         <v>350000</v>
       </c>
       <c r="H51" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2119,11 +2328,15 @@
         <v>200000</v>
       </c>
       <c r="H52" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2146,11 +2359,15 @@
         <v>600000</v>
       </c>
       <c r="H53" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2173,11 +2390,15 @@
         <v>350000</v>
       </c>
       <c r="H54" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2200,11 +2421,15 @@
         <v>150000</v>
       </c>
       <c r="H55" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2227,11 +2452,15 @@
         <v>150000</v>
       </c>
       <c r="H56" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2254,11 +2483,15 @@
         <v>200000</v>
       </c>
       <c r="H57" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2281,11 +2514,15 @@
         <v>300000</v>
       </c>
       <c r="H58" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2308,11 +2545,15 @@
         <v>100000</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2335,11 +2576,15 @@
         <v>250000</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2362,11 +2607,15 @@
         <v>300000</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2389,11 +2638,15 @@
         <v>50000</v>
       </c>
       <c r="H62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2416,11 +2669,15 @@
         <v>200000</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2443,11 +2700,15 @@
         <v>100000</v>
       </c>
       <c r="H64" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2470,11 +2731,15 @@
         <v>100000</v>
       </c>
       <c r="H65" s="2">
-        <f t="shared" si="1"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2497,11 +2762,15 @@
         <v>150000</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" ref="H66:H97" si="2">D66*G66</f>
+        <f t="shared" ref="H66:H97" si="3">D66*G66</f>
         <v>150000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2524,11 +2793,15 @@
         <v>200000</v>
       </c>
       <c r="H67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2551,11 +2824,15 @@
         <v>550000</v>
       </c>
       <c r="H68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2572,17 +2849,21 @@
         <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G69" s="2">
         <v>250000</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2605,11 +2886,15 @@
         <v>200000</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2632,11 +2917,15 @@
         <v>300000</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2659,11 +2948,15 @@
         <v>100000</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2686,11 +2979,15 @@
         <v>1150000</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1150000</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>575000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2713,11 +3010,15 @@
         <v>200000</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2740,11 +3041,15 @@
         <v>150000</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2767,11 +3072,15 @@
         <v>650000</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2785,23 +3094,27 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F77" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="G77" s="2">
         <v>800000</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800000</v>
       </c>
       <c r="I77" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2824,14 +3137,18 @@
         <v>750000</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750000</v>
       </c>
       <c r="I78" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2854,11 +3171,15 @@
         <v>100000</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2881,11 +3202,15 @@
         <v>150000</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2908,11 +3233,15 @@
         <v>200000</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2935,11 +3264,15 @@
         <v>165000</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2962,11 +3295,15 @@
         <v>100000</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2983,17 +3320,21 @@
         <v>18</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G84" s="2">
         <v>500000</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3010,17 +3351,21 @@
         <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G85" s="2">
         <v>300000</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3037,17 +3382,21 @@
         <v>52</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G86" s="2">
         <v>200000</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3061,21 +3410,25 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
+        <v>83</v>
+      </c>
+      <c r="F87" t="s">
         <v>84</v>
-      </c>
-      <c r="F87" t="s">
-        <v>85</v>
       </c>
       <c r="G87" s="2">
         <v>600000</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600000</v>
       </c>
       <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3092,17 +3445,21 @@
         <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G88" s="2">
         <v>650000</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3125,11 +3482,15 @@
         <v>500000</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3146,17 +3507,21 @@
         <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G90" s="2">
         <v>450000</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3173,17 +3538,21 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G91" s="2">
         <v>200000</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3206,11 +3575,15 @@
         <v>100000</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3233,11 +3606,15 @@
         <v>100000</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>100000</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3254,17 +3631,21 @@
         <v>25</v>
       </c>
       <c r="F94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G94" s="2">
         <v>500000</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3287,11 +3668,15 @@
         <v>50000</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3308,17 +3693,21 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G96" s="2">
         <v>150000</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>67500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3335,17 +3724,21 @@
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G97" s="2">
         <v>500000</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3368,11 +3761,15 @@
         <v>250000</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" ref="H98:H129" si="3">D98*G98</f>
+        <f t="shared" ref="H98:H129" si="5">D98*G98</f>
         <v>250000</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3395,11 +3792,15 @@
         <v>100000</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3416,17 +3817,21 @@
         <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G100" s="2">
         <v>500000</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3449,11 +3854,15 @@
         <v>250000</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3476,11 +3885,15 @@
         <v>500000</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <f t="shared" si="4"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3503,11 +3916,15 @@
         <v>100000</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3524,17 +3941,21 @@
         <v>27</v>
       </c>
       <c r="F104" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G104" s="2">
         <v>130000</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <f t="shared" si="4"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3557,11 +3978,15 @@
         <v>100000</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3584,11 +4009,15 @@
         <v>100000</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3605,17 +4034,21 @@
         <v>18</v>
       </c>
       <c r="F107" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G107" s="2">
         <v>200000</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <f t="shared" si="4"/>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3632,17 +4065,21 @@
         <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G108" s="2">
         <v>350000</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3665,11 +4102,15 @@
         <v>100000</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3686,17 +4127,21 @@
         <v>21</v>
       </c>
       <c r="F110" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G110" s="2">
         <v>400000</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <f t="shared" si="4"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3719,11 +4164,15 @@
         <v>300000</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <f t="shared" si="4"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3740,17 +4189,21 @@
         <v>52</v>
       </c>
       <c r="F112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G112" s="2">
         <v>550000</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <f t="shared" si="4"/>
+        <v>357500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3773,11 +4226,15 @@
         <v>120000</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <f t="shared" si="4"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3800,11 +4257,15 @@
         <v>100000</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3827,11 +4288,15 @@
         <v>350000</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3854,11 +4319,15 @@
         <v>200000</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <f t="shared" si="4"/>
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3875,17 +4344,21 @@
         <v>23</v>
       </c>
       <c r="F117" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G117" s="2">
         <v>50000</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <f t="shared" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3908,11 +4381,15 @@
         <v>100000</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3929,17 +4406,21 @@
         <v>27</v>
       </c>
       <c r="F119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G119" s="2">
         <v>100000</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="4"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3956,17 +4437,21 @@
         <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G120" s="2">
         <v>300000</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <f t="shared" si="4"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3989,11 +4474,15 @@
         <v>100000</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4010,17 +4499,21 @@
         <v>18</v>
       </c>
       <c r="F122" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G122" s="2">
         <v>400000</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>400000</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4037,17 +4530,21 @@
         <v>60</v>
       </c>
       <c r="F123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G123" s="2">
         <v>200000</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <f t="shared" si="4"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4070,11 +4567,15 @@
         <v>100000</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4097,11 +4598,15 @@
         <v>100000</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4118,17 +4623,21 @@
         <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G126" s="2">
         <v>200000</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <f t="shared" si="4"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4151,11 +4660,15 @@
         <v>100000</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="3"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>100000</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="4"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4172,17 +4685,21 @@
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G128" s="2">
         <v>350000</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <f t="shared" si="4"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4205,11 +4722,15 @@
         <v>300000</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <f t="shared" si="4"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4226,17 +4747,21 @@
         <v>52</v>
       </c>
       <c r="F130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G130" s="2">
         <v>180000</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" ref="H130:H135" si="4">D130*G130</f>
+        <f t="shared" ref="H130:H135" si="6">D130*G130</f>
         <v>180000</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <f t="shared" si="4"/>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4259,11 +4784,15 @@
         <v>100000</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="4"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>100000</v>
+      </c>
+      <c r="K131">
+        <f t="shared" ref="K131:K135" si="7">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4286,11 +4815,15 @@
         <v>300000</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <f t="shared" si="7"/>
+        <v>156000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4307,17 +4840,21 @@
         <v>13</v>
       </c>
       <c r="F133" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G133" s="2">
         <v>650000</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <f t="shared" si="7"/>
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4340,11 +4877,15 @@
         <v>130000</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <f t="shared" si="7"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4361,18 +4902,22 @@
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G135" s="2">
         <v>180000</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>180000</v>
       </c>
+      <c r="K135">
+        <f t="shared" si="7"/>
+        <v>81000</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J135" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:K135" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="J49:J50" numberStoredAsText="1"/>

--- a/Sales Data 2023/02Feb2023.xlsx
+++ b/Sales Data 2023/02Feb2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nevinphilbert\Portfolio\Full-Stack Projects\Maliq Computer Sales Analysis\Sales Data 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C267EC-5FE4-4BBC-A28F-5768742C968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683FE2CE-C2B6-42CE-A34A-9B2353A6A877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,8 +364,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$IDR]\ * #,##0_);_([$IDR]\ * \(#,##0\);_([$IDR]\ * &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -396,10 +397,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,7 +685,7 @@
   <dimension ref="A1:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="K2" sqref="K2:K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,6 +699,7 @@
     <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -760,9 +763,9 @@
         <f t="shared" ref="H2:H33" si="0">D2*G2</f>
         <v>400000</v>
       </c>
-      <c r="K2">
-        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*65%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*70%,IF(E2="KEYBOARD",H2*60%,IF(E2="ADAPTOR",H2*45%,IF(E2="MAINBOARD",H2*15%,IF(E2="ACCESSORIES",H2*25%,IF(E2="VGA",H2*15%,IF(E2="POWERSUPPLY",H2*40%,IF(E2="PROCESSOR",H2*20%,IF(E2="SECOND",H2*150%,IF(E2="CASING",H2*15%,IF(E2="MONITOR",H2*5%,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
-        <v>280000</v>
+      <c r="K2" s="3">
+        <f>IF(E2="INTERNALSTORAGE",H2*52%,IF(E2="SERVICE",H2*100%,IF(E2="DISPLAY",H2*50%,IF(E2="RAM",H2*52%,IF(E2="SOFTWARE",H2*100%,IF(E2="BATTERY",H2*45%,IF(E2="KEYBOARD",150000,IF(E2="ADAPTOR",H2*40%,IF(E2="MAINBOARD",100000,IF(E2="ACCESSORIES",H2*35%,IF(E2="VGA",100000,IF(E2="POWERSUPPLY",H2*30%,IF(E2="PROCESSOR",150000,IF(E2="SECOND",H2*150%,IF(E2="CASING",100000,IF(E2="MONITOR",100000,IF(E2="EXTERNALSTORAGE",100000,H2)))))))))))))))))</f>
+        <v>180000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -791,9 +794,9 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K3">
-        <f>IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*65%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*70%,IF(E3="KEYBOARD",H3*60%,IF(E3="ADAPTOR",H3*45%,IF(E3="MAINBOARD",H3*15%,IF(E3="ACCESSORIES",H3*25%,IF(E3="VGA",H3*15%,IF(E3="POWERSUPPLY",H3*40%,IF(E3="PROCESSOR",H3*20%,IF(E3="SECOND",H3*150%,IF(E3="CASING",H3*15%,IF(E3="MONITOR",H3*5%,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
-        <v>67500</v>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K66" si="1">IF(E3="INTERNALSTORAGE",H3*52%,IF(E3="SERVICE",H3*100%,IF(E3="DISPLAY",H3*50%,IF(E3="RAM",H3*52%,IF(E3="SOFTWARE",H3*100%,IF(E3="BATTERY",H3*45%,IF(E3="KEYBOARD",150000,IF(E3="ADAPTOR",H3*40%,IF(E3="MAINBOARD",100000,IF(E3="ACCESSORIES",H3*35%,IF(E3="VGA",100000,IF(E3="POWERSUPPLY",H3*30%,IF(E3="PROCESSOR",150000,IF(E3="SECOND",H3*150%,IF(E3="CASING",100000,IF(E3="MONITOR",100000,IF(E3="EXTERNALSTORAGE",100000,H3)))))))))))))))))</f>
+        <v>60000</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -822,8 +825,8 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K66" si="1">IF(E4="INTERNALSTORAGE",H4*52%,IF(E4="SERVICE",H4*100%,IF(E4="DISPLAY",H4*50%,IF(E4="RAM",H4*65%,IF(E4="SOFTWARE",H4*100%,IF(E4="BATTERY",H4*70%,IF(E4="KEYBOARD",H4*60%,IF(E4="ADAPTOR",H4*45%,IF(E4="MAINBOARD",H4*15%,IF(E4="ACCESSORIES",H4*25%,IF(E4="VGA",H4*15%,IF(E4="POWERSUPPLY",H4*40%,IF(E4="PROCESSOR",H4*20%,IF(E4="SECOND",H4*150%,IF(E4="CASING",H4*15%,IF(E4="MONITOR",H4*5%,IF(E4="EXTERNALSTORAGE",100000,H4)))))))))))))))))</f>
+      <c r="K4" s="3">
+        <f t="shared" si="1"/>
         <v>260000</v>
       </c>
     </row>
@@ -853,9 +856,9 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>75000</v>
+      <c r="K5" s="3">
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -884,7 +887,7 @@
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
         <v>312000</v>
       </c>
@@ -915,7 +918,7 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -946,9 +949,9 @@
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>81000</v>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>72000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -977,7 +980,7 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -1008,9 +1011,9 @@
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1039,7 +1042,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1070,7 +1073,7 @@
         <f t="shared" si="0"/>
         <v>700000</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
         <v>350000</v>
       </c>
@@ -1101,9 +1104,9 @@
         <f t="shared" si="0"/>
         <v>25000</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>6250</v>
+      <c r="K13" s="3">
+        <f t="shared" si="1"/>
+        <v>8750</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1132,9 +1135,9 @@
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="1"/>
-        <v>99000</v>
+      <c r="K14" s="3">
+        <f t="shared" si="1"/>
+        <v>88000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1163,9 +1166,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K15" s="3">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,7 +1197,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1225,7 +1228,7 @@
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1256,7 +1259,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1287,9 +1290,9 @@
         <f t="shared" si="0"/>
         <v>300000</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>180000</v>
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1318,7 +1321,7 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1349,7 +1352,7 @@
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="3">
         <f t="shared" si="1"/>
         <v>260000</v>
       </c>
@@ -1380,9 +1383,9 @@
         <f t="shared" si="0"/>
         <v>200000</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>90000</v>
+      <c r="K22" s="3">
+        <f t="shared" si="1"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1411,9 +1414,9 @@
         <f t="shared" si="0"/>
         <v>540000</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>378000</v>
+      <c r="K23" s="3">
+        <f t="shared" si="1"/>
+        <v>243000</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1442,7 +1445,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1473,9 +1476,9 @@
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>108000</v>
+      <c r="K25" s="3">
+        <f t="shared" si="1"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1504,7 +1507,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="I27" t="s">
         <v>37</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -1569,7 +1572,7 @@
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="3">
         <f t="shared" si="1"/>
         <v>234000</v>
       </c>
@@ -1600,9 +1603,9 @@
         <f t="shared" si="0"/>
         <v>130000</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="1"/>
-        <v>32500</v>
+      <c r="K29" s="3">
+        <f t="shared" si="1"/>
+        <v>45500</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1631,7 +1634,7 @@
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="3">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
@@ -1662,7 +1665,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1693,7 +1696,7 @@
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -1724,7 +1727,7 @@
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1755,7 +1758,7 @@
         <f t="shared" ref="H34:H65" si="2">D34*G34</f>
         <v>350000</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -1786,7 +1789,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1817,7 +1820,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1848,7 +1851,7 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -1882,7 +1885,7 @@
       <c r="I38" t="s">
         <v>44</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1916,7 +1919,7 @@
       <c r="I39" t="s">
         <v>46</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -1947,7 +1950,7 @@
         <f t="shared" si="2"/>
         <v>360000</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="3">
         <f t="shared" si="1"/>
         <v>187200</v>
       </c>
@@ -1978,9 +1981,9 @@
         <f t="shared" si="2"/>
         <v>1200000</v>
       </c>
-      <c r="K41">
-        <f t="shared" si="1"/>
-        <v>180000</v>
+      <c r="K41" s="3">
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2009,7 +2012,7 @@
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="3">
         <f t="shared" si="1"/>
         <v>260000</v>
       </c>
@@ -2040,7 +2043,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2071,7 +2074,7 @@
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="3">
         <f t="shared" si="1"/>
         <v>208000</v>
       </c>
@@ -2102,7 +2105,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2133,9 +2136,9 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K46">
-        <f t="shared" si="1"/>
-        <v>130000</v>
+      <c r="K46" s="3">
+        <f t="shared" si="1"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2164,7 +2167,7 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -2195,7 +2198,7 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -2232,7 +2235,7 @@
       <c r="J49" t="s">
         <v>63</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="3">
         <f t="shared" si="1"/>
         <v>234000</v>
       </c>
@@ -2269,9 +2272,9 @@
       <c r="J50" t="s">
         <v>63</v>
       </c>
-      <c r="K50">
-        <f t="shared" si="1"/>
-        <v>260000</v>
+      <c r="K50" s="3">
+        <f t="shared" si="1"/>
+        <v>208000</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2300,7 +2303,7 @@
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -2331,9 +2334,9 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K52">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+      <c r="K52" s="3">
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -2362,7 +2365,7 @@
         <f t="shared" si="2"/>
         <v>600000</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="3">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
@@ -2393,7 +2396,7 @@
         <f t="shared" si="2"/>
         <v>350000</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="3">
         <f t="shared" si="1"/>
         <v>182000</v>
       </c>
@@ -2424,7 +2427,7 @@
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -2455,7 +2458,7 @@
         <f t="shared" si="2"/>
         <v>150000</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="3">
         <f t="shared" si="1"/>
         <v>150000</v>
       </c>
@@ -2486,7 +2489,7 @@
         <f t="shared" si="2"/>
         <v>200000</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="3">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -2517,9 +2520,9 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="K58">
-        <f t="shared" si="1"/>
-        <v>210000</v>
+      <c r="K58" s="3">
+        <f t="shared" si="1"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2548,7 +2551,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2579,9 +2582,9 @@
         <f t="shared" si="2"/>
         <v>500000</v>
       </c>
-      <c r="K60">
-        <f t="shared" si="1"/>
-        <v>325000</v>
+      <c r="K60" s="3">
+        <f t="shared" si="1"/>
+        <v>260000</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -2610,9 +2613,9 @@
         <f t="shared" si="2"/>
         <v>300000</v>
       </c>
-      <c r="K61">
-        <f t="shared" si="1"/>
-        <v>210000</v>
+      <c r="K61" s="3">
+        <f t="shared" si="1"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -2641,7 +2644,7 @@
         <f t="shared" si="2"/>
         <v>50000</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="3">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
@@ -2672,9 +2675,9 @@
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="K63">
-        <f t="shared" si="1"/>
-        <v>260000</v>
+      <c r="K63" s="3">
+        <f t="shared" si="1"/>
+        <v>208000</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -2703,7 +2706,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2734,7 +2737,7 @@
         <f t="shared" si="2"/>
         <v>100000</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="3">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -2765,9 +2768,9 @@
         <f t="shared" ref="H66:H97" si="3">D66*G66</f>
         <v>150000</v>
       </c>
-      <c r="K66">
-        <f t="shared" si="1"/>
-        <v>67500</v>
+      <c r="K66" s="3">
+        <f t="shared" si="1"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -2796,9 +2799,9 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K67">
-        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*65%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*70%,IF(E67="KEYBOARD",H67*60%,IF(E67="ADAPTOR",H67*45%,IF(E67="MAINBOARD",H67*15%,IF(E67="ACCESSORIES",H67*25%,IF(E67="VGA",H67*15%,IF(E67="POWERSUPPLY",H67*40%,IF(E67="PROCESSOR",H67*20%,IF(E67="SECOND",H67*150%,IF(E67="CASING",H67*15%,IF(E67="MONITOR",H67*5%,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
-        <v>130000</v>
+      <c r="K67" s="3">
+        <f t="shared" ref="K67:K130" si="4">IF(E67="INTERNALSTORAGE",H67*52%,IF(E67="SERVICE",H67*100%,IF(E67="DISPLAY",H67*50%,IF(E67="RAM",H67*52%,IF(E67="SOFTWARE",H67*100%,IF(E67="BATTERY",H67*45%,IF(E67="KEYBOARD",150000,IF(E67="ADAPTOR",H67*40%,IF(E67="MAINBOARD",100000,IF(E67="ACCESSORIES",H67*35%,IF(E67="VGA",100000,IF(E67="POWERSUPPLY",H67*30%,IF(E67="PROCESSOR",150000,IF(E67="SECOND",H67*150%,IF(E67="CASING",100000,IF(E67="MONITOR",100000,IF(E67="EXTERNALSTORAGE",100000,H67)))))))))))))))))</f>
+        <v>104000</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -2827,7 +2830,7 @@
         <f t="shared" si="3"/>
         <v>550000</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="3">
         <f t="shared" si="4"/>
         <v>286000</v>
       </c>
@@ -2858,7 +2861,7 @@
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="3">
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
@@ -2889,7 +2892,7 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="3">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
@@ -2920,9 +2923,9 @@
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="K71">
-        <f t="shared" si="4"/>
-        <v>210000</v>
+      <c r="K71" s="3">
+        <f t="shared" si="4"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,7 +2954,7 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -2982,7 +2985,7 @@
         <f t="shared" si="3"/>
         <v>1150000</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="3">
         <f t="shared" si="4"/>
         <v>575000</v>
       </c>
@@ -3013,9 +3016,9 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K74">
-        <f t="shared" si="4"/>
-        <v>80000</v>
+      <c r="K74" s="3">
+        <f t="shared" si="4"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -3044,9 +3047,9 @@
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="4"/>
-        <v>67500</v>
+      <c r="K75" s="3">
+        <f t="shared" si="4"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -3075,9 +3078,9 @@
         <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-      <c r="K76">
-        <f t="shared" si="4"/>
-        <v>455000</v>
+      <c r="K76" s="3">
+        <f t="shared" si="4"/>
+        <v>292500</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -3109,7 +3112,7 @@
       <c r="I77" t="s">
         <v>79</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3143,7 +3146,7 @@
       <c r="I78" t="s">
         <v>79</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="3">
         <f t="shared" si="4"/>
         <v>390000</v>
       </c>
@@ -3174,7 +3177,7 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3205,7 +3208,7 @@
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="3">
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
@@ -3236,9 +3239,9 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K81">
-        <f t="shared" si="4"/>
-        <v>130000</v>
+      <c r="K81" s="3">
+        <f t="shared" si="4"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -3267,9 +3270,9 @@
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="K82">
-        <f t="shared" si="4"/>
-        <v>99000</v>
+      <c r="K82" s="3">
+        <f t="shared" si="4"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -3298,7 +3301,7 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3329,7 +3332,7 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="3">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
@@ -3360,7 +3363,7 @@
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="3">
         <f t="shared" si="4"/>
         <v>156000</v>
       </c>
@@ -3391,9 +3394,9 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K86">
-        <f t="shared" si="4"/>
-        <v>130000</v>
+      <c r="K86" s="3">
+        <f t="shared" si="4"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -3423,9 +3426,9 @@
         <v>600000</v>
       </c>
       <c r="I87" s="2"/>
-      <c r="K87">
-        <f t="shared" si="4"/>
-        <v>90000</v>
+      <c r="K87" s="3">
+        <f t="shared" si="4"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -3454,9 +3457,9 @@
         <f t="shared" si="3"/>
         <v>650000</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="4"/>
-        <v>97500</v>
+      <c r="K88" s="3">
+        <f t="shared" si="4"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -3485,9 +3488,9 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K89">
-        <f t="shared" si="4"/>
-        <v>350000</v>
+      <c r="K89" s="3">
+        <f t="shared" si="4"/>
+        <v>225000</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -3516,7 +3519,7 @@
         <f t="shared" si="3"/>
         <v>450000</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="3">
         <f t="shared" si="4"/>
         <v>225000</v>
       </c>
@@ -3547,9 +3550,9 @@
         <f t="shared" si="3"/>
         <v>200000</v>
       </c>
-      <c r="K91">
-        <f t="shared" si="4"/>
-        <v>90000</v>
+      <c r="K91" s="3">
+        <f t="shared" si="4"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -3578,7 +3581,7 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3609,7 +3612,7 @@
         <f t="shared" si="3"/>
         <v>100000</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3640,7 +3643,7 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="3">
         <f t="shared" si="4"/>
         <v>250000</v>
       </c>
@@ -3671,7 +3674,7 @@
         <f t="shared" si="3"/>
         <v>50000</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
@@ -3702,9 +3705,9 @@
         <f t="shared" si="3"/>
         <v>150000</v>
       </c>
-      <c r="K96">
-        <f t="shared" si="4"/>
-        <v>67500</v>
+      <c r="K96" s="3">
+        <f t="shared" si="4"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -3733,7 +3736,7 @@
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="3">
         <f t="shared" si="4"/>
         <v>260000</v>
       </c>
@@ -3764,7 +3767,7 @@
         <f t="shared" ref="H98:H129" si="5">D98*G98</f>
         <v>250000</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="3">
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
@@ -3795,7 +3798,7 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="3">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
@@ -3826,7 +3829,7 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="3">
         <f t="shared" si="4"/>
         <v>500000</v>
       </c>
@@ -3857,7 +3860,7 @@
         <f t="shared" si="5"/>
         <v>250000</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="3">
         <f t="shared" si="4"/>
         <v>150000</v>
       </c>
@@ -3888,9 +3891,9 @@
         <f t="shared" si="5"/>
         <v>500000</v>
       </c>
-      <c r="K102">
-        <f t="shared" si="4"/>
-        <v>350000</v>
+      <c r="K102" s="3">
+        <f t="shared" si="4"/>
+        <v>225000</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -3919,7 +3922,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -3950,9 +3953,9 @@
         <f t="shared" si="5"/>
         <v>130000</v>
       </c>
-      <c r="K104">
-        <f t="shared" si="4"/>
-        <v>32500</v>
+      <c r="K104" s="3">
+        <f t="shared" si="4"/>
+        <v>45500</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -3981,7 +3984,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4012,7 +4015,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4043,7 +4046,7 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="3">
         <f t="shared" si="4"/>
         <v>200000</v>
       </c>
@@ -4074,7 +4077,7 @@
         <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="3">
         <f t="shared" si="4"/>
         <v>182000</v>
       </c>
@@ -4105,7 +4108,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4136,9 +4139,9 @@
         <f t="shared" si="5"/>
         <v>400000</v>
       </c>
-      <c r="K110">
-        <f t="shared" si="4"/>
-        <v>240000</v>
+      <c r="K110" s="3">
+        <f t="shared" si="4"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
@@ -4167,7 +4170,7 @@
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="3">
         <f t="shared" si="4"/>
         <v>156000</v>
       </c>
@@ -4198,9 +4201,9 @@
         <f t="shared" si="5"/>
         <v>550000</v>
       </c>
-      <c r="K112">
-        <f t="shared" si="4"/>
-        <v>357500</v>
+      <c r="K112" s="3">
+        <f t="shared" si="4"/>
+        <v>286000</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4229,9 +4232,9 @@
         <f t="shared" si="5"/>
         <v>120000</v>
       </c>
-      <c r="K113">
-        <f t="shared" si="4"/>
-        <v>54000</v>
+      <c r="K113" s="3">
+        <f t="shared" si="4"/>
+        <v>48000</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4260,7 +4263,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4291,7 +4294,7 @@
         <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="3">
         <f t="shared" si="4"/>
         <v>182000</v>
       </c>
@@ -4322,9 +4325,9 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K116">
-        <f t="shared" si="4"/>
-        <v>130000</v>
+      <c r="K116" s="3">
+        <f t="shared" si="4"/>
+        <v>104000</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -4353,7 +4356,7 @@
         <f t="shared" si="5"/>
         <v>50000</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="3">
         <f t="shared" si="4"/>
         <v>50000</v>
       </c>
@@ -4384,7 +4387,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4415,9 +4418,9 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K119">
-        <f t="shared" si="4"/>
-        <v>25000</v>
+      <c r="K119" s="3">
+        <f t="shared" si="4"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -4446,9 +4449,9 @@
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="K120">
-        <f t="shared" si="4"/>
-        <v>210000</v>
+      <c r="K120" s="3">
+        <f t="shared" si="4"/>
+        <v>135000</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -4477,7 +4480,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4508,7 +4511,7 @@
         <f t="shared" si="5"/>
         <v>400000</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="3">
         <f t="shared" si="4"/>
         <v>400000</v>
       </c>
@@ -4539,9 +4542,9 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K123">
-        <f t="shared" si="4"/>
-        <v>80000</v>
+      <c r="K123" s="3">
+        <f t="shared" si="4"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -4570,7 +4573,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4601,7 +4604,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4632,9 +4635,9 @@
         <f t="shared" si="5"/>
         <v>200000</v>
       </c>
-      <c r="K126">
-        <f t="shared" si="4"/>
-        <v>90000</v>
+      <c r="K126" s="3">
+        <f t="shared" si="4"/>
+        <v>80000</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
@@ -4663,7 +4666,7 @@
         <f t="shared" si="5"/>
         <v>100000</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="3">
         <f t="shared" si="4"/>
         <v>100000</v>
       </c>
@@ -4694,7 +4697,7 @@
         <f t="shared" si="5"/>
         <v>350000</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="3">
         <f t="shared" si="4"/>
         <v>182000</v>
       </c>
@@ -4725,7 +4728,7 @@
         <f t="shared" si="5"/>
         <v>300000</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="3">
         <f t="shared" si="4"/>
         <v>156000</v>
       </c>
@@ -4756,9 +4759,9 @@
         <f t="shared" ref="H130:H135" si="6">D130*G130</f>
         <v>180000</v>
       </c>
-      <c r="K130">
-        <f t="shared" si="4"/>
-        <v>117000</v>
+      <c r="K130" s="3">
+        <f t="shared" si="4"/>
+        <v>93600</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
@@ -4787,8 +4790,8 @@
         <f t="shared" si="6"/>
         <v>100000</v>
       </c>
-      <c r="K131">
-        <f t="shared" ref="K131:K135" si="7">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*65%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*70%,IF(E131="KEYBOARD",H131*60%,IF(E131="ADAPTOR",H131*45%,IF(E131="MAINBOARD",H131*15%,IF(E131="ACCESSORIES",H131*25%,IF(E131="VGA",H131*15%,IF(E131="POWERSUPPLY",H131*40%,IF(E131="PROCESSOR",H131*20%,IF(E131="SECOND",H131*150%,IF(E131="CASING",H131*15%,IF(E131="MONITOR",H131*5%,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
+      <c r="K131" s="3">
+        <f t="shared" ref="K131:K135" si="7">IF(E131="INTERNALSTORAGE",H131*52%,IF(E131="SERVICE",H131*100%,IF(E131="DISPLAY",H131*50%,IF(E131="RAM",H131*52%,IF(E131="SOFTWARE",H131*100%,IF(E131="BATTERY",H131*45%,IF(E131="KEYBOARD",150000,IF(E131="ADAPTOR",H131*40%,IF(E131="MAINBOARD",100000,IF(E131="ACCESSORIES",H131*35%,IF(E131="VGA",100000,IF(E131="POWERSUPPLY",H131*30%,IF(E131="PROCESSOR",150000,IF(E131="SECOND",H131*150%,IF(E131="CASING",100000,IF(E131="MONITOR",100000,IF(E131="EXTERNALSTORAGE",100000,H131)))))))))))))))))</f>
         <v>100000</v>
       </c>
     </row>
@@ -4818,7 +4821,7 @@
         <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="3">
         <f t="shared" si="7"/>
         <v>156000</v>
       </c>
@@ -4849,7 +4852,7 @@
         <f t="shared" si="6"/>
         <v>650000</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="3">
         <f t="shared" si="7"/>
         <v>338000</v>
       </c>
@@ -4880,9 +4883,9 @@
         <f t="shared" si="6"/>
         <v>130000</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="3">
         <f t="shared" si="7"/>
-        <v>32500</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -4911,9 +4914,9 @@
         <f t="shared" si="6"/>
         <v>180000</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="3">
         <f t="shared" si="7"/>
-        <v>81000</v>
+        <v>72000</v>
       </c>
     </row>
   </sheetData>
